--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/marcio_bouzon_uipath_com/Documents/Documents/UiPath/DEMO-DU_PuertoVentanas/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.bouzon\github.com\BouzonORG\DEMO-DU_Custom\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{354AE0B3-6B75-4EBC-9ECC-17992C7A205A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8898D506-8B02-4634-BF5B-ABB9C1CB41DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BF28F8-1DD6-49A2-A7F3-06DDB47FF25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2400" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,10 +518,10 @@
     <t>DocumentUnderstandingApiKey-stg</t>
   </si>
   <si>
-    <t>DU-DEMO</t>
-  </si>
-  <si>
-    <t>\Desktop\DU-DEMO</t>
+    <t>DEMO-DU</t>
+  </si>
+  <si>
+    <t>\Desktop\DEMO-DU</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
   <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.bouzon\github.com\BouzonORG\DEMO-DU_Custom\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.bouzon\_WFOLDER\github.com\UiPath-LATAM\DEMO-DU_Custom\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BF28F8-1DD6-49A2-A7F3-06DDB47FF25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9E3DA1-32D4-4224-9629-D9B633607BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2400" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2325" windowWidth="28800" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -521,7 +521,10 @@
     <t>DEMO-DU</t>
   </si>
   <si>
-    <t>\Desktop\DEMO-DU</t>
+    <t>DEMO-DU-inputFiles</t>
+  </si>
+  <si>
+    <t>Data\Exports</t>
   </si>
 </sst>
 </file>
@@ -908,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -997,8 +1000,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>162</v>
+      <c r="B4" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -3636,8 +3639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3704,7 +3707,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4703,5 +4713,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.bouzon\_WFOLDER\github.com\UiPath-LATAM\DEMO-DU_Custom\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9E3DA1-32D4-4224-9629-D9B633607BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F92C89-1C8E-42BE-A3C3-BAE190025B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2325" windowWidth="28800" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="2670" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="InvoicePostProcessing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="205">
   <si>
     <t>Name</t>
   </si>
@@ -525,13 +526,136 @@
   </si>
   <si>
     <t>Data\Exports</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing</t>
+  </si>
+  <si>
+    <t>Starting Invoice Post Processing</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_DateFailure</t>
+  </si>
+  <si>
+    <t>Parsing the Date has failed!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_MandatoryFieldsFailure</t>
+  </si>
+  <si>
+    <t>One or more of the mandatory were missing!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_LineAmountFailureMath</t>
+  </si>
+  <si>
+    <t>Quantity * Unit-price is not equal to Line Amount!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_LineAmountFailureEmpty</t>
+  </si>
+  <si>
+    <t>Quantity or Unit-price is Empty!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_AlreadySetFalse</t>
+  </si>
+  <si>
+    <t>AutoExtraction is already set to false in a previous step. Skipping rest of checks.</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_SubtotalFailure</t>
+  </si>
+  <si>
+    <t>Subtotal Failure with subtotal: {0} and net-amount {1}</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_TotalFailure</t>
+  </si>
+  <si>
+    <t>Total Computation Failed!</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_SubtotalPass</t>
+  </si>
+  <si>
+    <t>Subtotal Pass with subtotal: {0} and net-amount {1}</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostProcessing_ConfidenceFieldsFailure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are the fields that failed: </t>
+  </si>
+  <si>
+    <t>DecimalRounding</t>
+  </si>
+  <si>
+    <t>SubTotalAdditions</t>
+  </si>
+  <si>
+    <t>Tax Amount,Shipping Charges,Discount</t>
+  </si>
+  <si>
+    <t>Each field present in the list here, will be added to the subtotal to compute the total</t>
+  </si>
+  <si>
+    <t>MandatoryFields</t>
+  </si>
+  <si>
+    <t>Date,Invoice Number,PO Number,Total</t>
+  </si>
+  <si>
+    <t>These fields are mandatory. If they have not been extracted at all, the document will be sent for validation</t>
+  </si>
+  <si>
+    <t>MandatoryColumnFields</t>
+  </si>
+  <si>
+    <t>Quantity,Unit Price,Line Amount</t>
+  </si>
+  <si>
+    <t>These column fields are mandatory. If they have not been extracted at all, the document will be sent for validation</t>
+  </si>
+  <si>
+    <t>ConfidenceFields</t>
+  </si>
+  <si>
+    <t>Date,Shipping Address,Invoice Number,PO Number</t>
+  </si>
+  <si>
+    <t>List of fields which will be checked versus a specific confidence threshold. All new entries must have the "-Confidence" suffix</t>
+  </si>
+  <si>
+    <t>OtherConfidenceFields</t>
+  </si>
+  <si>
+    <t>Tax Amount,Net Amount,Discount,Shipping Charges,Billing Name,Total, Name, Vendor Address, Billing Address, Billing VAT Number, Payment Address, Vendor VAT Number, DueDate,Payment Terms, Currency,Discount</t>
+  </si>
+  <si>
+    <t>List of fields which will be checked versus a single confidence #:  Other-Confidence</t>
+  </si>
+  <si>
+    <t>Date-Confidence</t>
+  </si>
+  <si>
+    <t>Shipping Address-Confidence</t>
+  </si>
+  <si>
+    <t>Invoice Number-Confidence</t>
+  </si>
+  <si>
+    <t>PO Number-Confidence</t>
+  </si>
+  <si>
+    <t>other-Confidence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -561,6 +685,13 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -583,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -594,6 +725,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -911,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3639,7 +3772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4715,4 +4848,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB1B18-F8D4-4BE6-A549-70A5EF457738}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="5">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>